--- a/PLSstatic/PLSstatic_predicted_variables_matrix_11.xlsx
+++ b/PLSstatic/PLSstatic_predicted_variables_matrix_11.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2646664248191877</v>
+        <v>-0.2240573820950316</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2888203576499097</v>
+        <v>-0.8423178265276455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.157641263896912</v>
+        <v>-0.4553685946700043</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1694155472129909</v>
+        <v>-1.235507676798821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.127113144926833</v>
+        <v>-0.5278379518559873</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1396053677575091</v>
+        <v>-1.566795719579535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.07518310541293202</v>
+        <v>-0.1845383627197756</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08136058819682768</v>
+        <v>-0.5160586773955623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1635323820753756</v>
+        <v>-0.1422547452361376</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1695612834716944</v>
+        <v>-0.2033932526420603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4231239833173519</v>
+        <v>-0.2523867589171573</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4341390007996377</v>
+        <v>-0.9289366506393678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2464054101441222</v>
+        <v>-0.4844991234832019</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2273196888351351</v>
+        <v>-1.084576464643076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4963192137931769</v>
+        <v>-0.6458856374696516</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4538420166398687</v>
+        <v>-1.819197354611111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3336118804809247</v>
+        <v>-0.4180211651819382</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3721617635253293</v>
+        <v>-0.3360161118667869</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2272359070588709</v>
+        <v>-0.245361741443936</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2345088258013384</v>
+        <v>-0.8465318135076723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1048341818882271</v>
+        <v>-0.1651689789195376</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1017729030300163</v>
+        <v>-0.3035523266656242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.04148642982983312</v>
+        <v>-0.09993966004602424</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0398213271393958</v>
+        <v>-0.2221261144249995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.02644045719614301</v>
+        <v>-0.2309898742790695</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.001728085255104407</v>
+        <v>-0.1651132991030768</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1053868213385725</v>
+        <v>-0.07493548678513198</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.07954636065514489</v>
+        <v>0.1019036121030714</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1714602225321026</v>
+        <v>-0.2890012510448752</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2424482414526087</v>
+        <v>-0.7287499618783468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3830452157365818</v>
+        <v>-0.0714742175466927</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4481014097735835</v>
+        <v>0.3829829239690155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1171450809515641</v>
+        <v>0.01792149853922802</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1071197902734834</v>
+        <v>0.4545560511871357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.353143521089764</v>
+        <v>0.04053898712175434</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3707789033862848</v>
+        <v>0.272489208433004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.117907708216669</v>
+        <v>-0.1826924071950058</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1508034578041939</v>
+        <v>-0.5593164331519933</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.487239390055434</v>
+        <v>-0.005807501018855583</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5147275773161782</v>
+        <v>0.3428473704740234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2230202437921406</v>
+        <v>-0.07323417147641095</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2755411828689077</v>
+        <v>0.2979832308986702</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1270633386048483</v>
+        <v>0.06484448400993015</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1236146568579689</v>
+        <v>0.6210951342024124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.258803955251516</v>
+        <v>0.9024386427910537</v>
       </c>
       <c r="B24" t="n">
-        <v>3.857127017243374</v>
+        <v>2.627107393217361</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4341300435187329</v>
+        <v>0.1368552340490907</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4131671102403549</v>
+        <v>0.6452190093780371</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3279326236913974</v>
+        <v>0.1549950726513568</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3218014145076517</v>
+        <v>0.6042571049666015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2247794457295946</v>
+        <v>0.1426170094611148</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2366097275323428</v>
+        <v>0.7081891419616516</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.440582956431142</v>
+        <v>0.5049829599445227</v>
       </c>
       <c r="B28" t="n">
-        <v>1.241478052734627</v>
+        <v>1.379240453877689</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.006615447355381</v>
+        <v>0.7400371522049216</v>
       </c>
       <c r="B29" t="n">
-        <v>3.654673409113183</v>
+        <v>2.373109115306937</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9543791736150629</v>
+        <v>0.2205393640190483</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9148112640930675</v>
+        <v>0.7472694813022284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.2385219286238189</v>
+        <v>0.1133074673054343</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2673794679299409</v>
+        <v>0.6152953765497228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7824975782802668</v>
+        <v>0.2269024655645463</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7824655662448388</v>
+        <v>1.046222059615861</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8602780941382731</v>
+        <v>0.1242021841012241</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8730329912715015</v>
+        <v>0.7391900337209755</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.6851223603839195</v>
+        <v>0.1055777967997722</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.7046059370429664</v>
+        <v>0.4882349684802429</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8609126453741395</v>
+        <v>0.3782213763586546</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8498552625570811</v>
+        <v>1.16111735977127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8165383773942055</v>
+        <v>0.2202667765525497</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7991058335882617</v>
+        <v>0.5704051750469386</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.739865675136738</v>
+        <v>-0.03040543460921919</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7401376239365839</v>
+        <v>-0.1620018926962793</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7003349738044263</v>
+        <v>0.3409508289099617</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6928038220830579</v>
+        <v>1.607509189034785</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6121321128038294</v>
+        <v>-0.08692884382998702</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6074098546081539</v>
+        <v>-0.304817569241507</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7859129037356708</v>
+        <v>0.09655854870876582</v>
       </c>
       <c r="B40" t="n">
-        <v>0.792676304352724</v>
+        <v>0.5574675952503543</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5629603645073747</v>
+        <v>-0.08825840729918313</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5510245623811044</v>
+        <v>0.5751353786110344</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7040560917179395</v>
+        <v>0.2680190031607991</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7065463370657858</v>
+        <v>1.518062308013523</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6859020640999454</v>
+        <v>0.03951969672968036</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6902258392951615</v>
+        <v>0.6883242602943517</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7123580231651832</v>
+        <v>0.00883178434350345</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7041657930511936</v>
+        <v>0.2674014823035519</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7043682915843799</v>
+        <v>-0.1428712605477558</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7125037669700496</v>
+        <v>-0.1141499984048844</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.287417306295638</v>
+        <v>-0.1663499847864685</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.278399334658233</v>
+        <v>-0.4422394979909348</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9998633540498626</v>
+        <v>-0.1651186064414647</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9907186693630493</v>
+        <v>-0.3393334879735583</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8901438982554339</v>
+        <v>-0.2181390247206032</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8757624550905752</v>
+        <v>-0.5548466924786324</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6588779926202393</v>
+        <v>-0.2263547796627832</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6431758494824729</v>
+        <v>-0.603452370330974</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.04047778391788179</v>
+        <v>-0.09045262455631786</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04296863135529388</v>
+        <v>-0.1304291070007842</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8780950022655623</v>
+        <v>-0.2373791008676429</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8664376485407137</v>
+        <v>-0.6325859580577897</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8780950022655623</v>
+        <v>-0.2373791008676429</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8664376485407137</v>
+        <v>-0.6325859580577897</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.140128274218261</v>
+        <v>-0.1904477638590519</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.127475652056219</v>
+        <v>-0.4017150489397747</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1879349871212659</v>
+        <v>-0.2172103047131405</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1765983270017985</v>
+        <v>-0.5397440971940055</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.015046473291482</v>
+        <v>-0.153770650470989</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.002837744488064</v>
+        <v>-0.346641436416951</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8742445512213556</v>
+        <v>-0.1097901104350138</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8684015689517268</v>
+        <v>-0.2495272951157002</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.979166235521411</v>
+        <v>-0.1823600252312687</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9547576631589987</v>
+        <v>-0.3533531778901888</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.091914330963117</v>
+        <v>-0.1235192853861045</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.112428326974405</v>
+        <v>-0.1927951271469748</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8164794181632746</v>
+        <v>-0.2064025312323419</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8205490316811731</v>
+        <v>-0.6467528678082295</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.477459771711723</v>
+        <v>-0.2519596432228912</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4733314799977058</v>
+        <v>-0.7057046263030606</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.370098625864427</v>
+        <v>-0.2631631034639139</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3756588139685954</v>
+        <v>-0.3346394362166714</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.225113342700414</v>
+        <v>-0.1494400689509996</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.184878996936603</v>
+        <v>-0.1054478987597478</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7216334255033026</v>
+        <v>-0.4830984801062096</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7026457958912365</v>
+        <v>-1.265229971763212</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9361642522116594</v>
+        <v>-0.2858164373128231</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9257862474111008</v>
+        <v>-0.6682835636196809</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.07898563912918863</v>
+        <v>-0.2431258262022521</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.07223183011141984</v>
+        <v>-0.5737247048128161</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.7686952473848876</v>
+        <v>-0.07976193361727597</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.7619319626805581</v>
+        <v>-0.001581389870826247</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.697913679337784</v>
+        <v>0.02869937901101812</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7049544371409399</v>
+        <v>0.2671584395562051</v>
       </c>
     </row>
   </sheetData>
